--- a/spring-boot-web/src/main/resources/static/template/黑名单导入模板.xlsx
+++ b/spring-boot-web/src/main/resources/static/template/黑名单导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12435"/>
+    <workbookView windowWidth="23040" windowHeight="8735"/>
   </bookViews>
   <sheets>
     <sheet name="黑名单" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,16 @@
     <t>黑名单清单</t>
   </si>
   <si>
-    <t>序号</t>
+    <t>序号（必填）</t>
   </si>
   <si>
-    <t>姓名</t>
+    <t>姓名（必填）</t>
   </si>
   <si>
-    <t>证件号码</t>
+    <t>证件号码（必填）</t>
   </si>
   <si>
-    <t>不符合授信原因</t>
+    <t>不符合授信原因（必填）</t>
   </si>
   <si>
     <t>信贷系统黑名单</t>
@@ -59,10 +59,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -101,6 +101,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -115,6 +146,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -123,7 +183,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,22 +214,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,90 +237,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,25 +252,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,31 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,121 +402,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,15 +498,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -536,6 +527,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,15 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1118,15 +1118,15 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.8833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.775" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7777777777778" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.4444444444444" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
@@ -1312,9 +1312,9 @@
       <selection activeCell="A1" sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="19.775" customWidth="1"/>
+    <col min="1" max="1" width="19.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1363,7 +1363,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
